--- a/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsMaps.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsMaps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="171">
   <si>
     <t>id2tech/id</t>
   </si>
@@ -220,39 +220,6 @@
     <t>DK1_SmallDecentral_SH</t>
   </si>
   <si>
-    <t>DK1_nan_CD_Biogas</t>
-  </si>
-  <si>
-    <t>DK1_nan_IndustryE_Biogas</t>
-  </si>
-  <si>
-    <t>DK1_nan_IndustryE_Biomass</t>
-  </si>
-  <si>
-    <t>DK1_nan_CD_Natgas</t>
-  </si>
-  <si>
-    <t>DK1_nan_IndustryE_Natgas</t>
-  </si>
-  <si>
-    <t>DK1_nan_CD_Oil</t>
-  </si>
-  <si>
-    <t>DK1_nan_IndustryE_Oil</t>
-  </si>
-  <si>
-    <t>DK1_nan_PV</t>
-  </si>
-  <si>
-    <t>DK1_nan_ROR</t>
-  </si>
-  <si>
-    <t>DK1_nan_WL</t>
-  </si>
-  <si>
-    <t>DK1_nan_WS</t>
-  </si>
-  <si>
     <t>DK2_Central_BH_Biogas</t>
   </si>
   <si>
@@ -385,36 +352,6 @@
     <t>DK2_SmallDecentral_SH</t>
   </si>
   <si>
-    <t>DK2_nan_CD_Biogas</t>
-  </si>
-  <si>
-    <t>DK2_nan_IndustryE_Biogas</t>
-  </si>
-  <si>
-    <t>DK2_nan_CD_Coal</t>
-  </si>
-  <si>
-    <t>DK2_nan_CD_Natgas</t>
-  </si>
-  <si>
-    <t>DK2_nan_IndustryE_Natgas</t>
-  </si>
-  <si>
-    <t>DK2_nan_CD_Oil</t>
-  </si>
-  <si>
-    <t>DK2_nan_IndustryE_Oil</t>
-  </si>
-  <si>
-    <t>DK2_nan_PV</t>
-  </si>
-  <si>
-    <t>DK2_nan_WL</t>
-  </si>
-  <si>
-    <t>DK2_nan_WS</t>
-  </si>
-  <si>
     <t>BP_Biogas</t>
   </si>
   <si>
@@ -481,6 +418,51 @@
     <t>GT</t>
   </si>
   <si>
+    <t>SH_DK1_Central</t>
+  </si>
+  <si>
+    <t>SH_DK1_LargeDecentral</t>
+  </si>
+  <si>
+    <t>SH_DK1_SmallDecentral</t>
+  </si>
+  <si>
+    <t>SH_DK2_Central</t>
+  </si>
+  <si>
+    <t>SH_DK2_LargeDecentral</t>
+  </si>
+  <si>
+    <t>SH_DK2_SmallDecentral</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>DK1</t>
+  </si>
+  <si>
+    <t>DK2</t>
+  </si>
+  <si>
+    <t>DK1_Central</t>
+  </si>
+  <si>
+    <t>DK1_LargeDecentral</t>
+  </si>
+  <si>
+    <t>DK1_SmallDecentral</t>
+  </si>
+  <si>
+    <t>DK2_Central</t>
+  </si>
+  <si>
+    <t>DK2_LargeDecentral</t>
+  </si>
+  <si>
+    <t>DK2_SmallDecentral</t>
+  </si>
+  <si>
     <t>CD_Biogas</t>
   </si>
   <si>
@@ -515,69 +497,6 @@
   </si>
   <si>
     <t>CD_Coal</t>
-  </si>
-  <si>
-    <t>SH_DK1_Central</t>
-  </si>
-  <si>
-    <t>SH_DK1_LargeDecentral</t>
-  </si>
-  <si>
-    <t>SH_DK1_SmallDecentral</t>
-  </si>
-  <si>
-    <t>PV_DK1</t>
-  </si>
-  <si>
-    <t>WL_DK1</t>
-  </si>
-  <si>
-    <t>WS_DK1</t>
-  </si>
-  <si>
-    <t>SH_DK2_Central</t>
-  </si>
-  <si>
-    <t>SH_DK2_LargeDecentral</t>
-  </si>
-  <si>
-    <t>SH_DK2_SmallDecentral</t>
-  </si>
-  <si>
-    <t>PV_DK2</t>
-  </si>
-  <si>
-    <t>WL_DK2</t>
-  </si>
-  <si>
-    <t>WS_DK2</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>DK1</t>
-  </si>
-  <si>
-    <t>DK2</t>
-  </si>
-  <si>
-    <t>DK1_Central</t>
-  </si>
-  <si>
-    <t>DK1_LargeDecentral</t>
-  </si>
-  <si>
-    <t>DK1_SmallDecentral</t>
-  </si>
-  <si>
-    <t>DK2_Central</t>
-  </si>
-  <si>
-    <t>DK2_LargeDecentral</t>
-  </si>
-  <si>
-    <t>DK2_SmallDecentral</t>
   </si>
   <si>
     <t>DK1_ImportFrom_DELU</t>
@@ -965,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1008,31 +927,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1040,31 +959,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="J3" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1072,31 +991,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1104,31 +1023,25 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="J5" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1136,31 +1049,25 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="J6" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1168,31 +1075,25 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1200,31 +1101,25 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="J8" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1232,31 +1127,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1264,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1296,31 +1191,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I11" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1328,31 +1223,25 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1360,31 +1249,25 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1392,31 +1275,25 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1424,31 +1301,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1456,31 +1333,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1488,31 +1365,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1520,31 +1397,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1552,31 +1429,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1584,31 +1461,31 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
         <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1616,31 +1493,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1648,31 +1525,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
         <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1680,31 +1557,31 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
         <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1712,31 +1589,31 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1744,31 +1621,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I25" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1776,31 +1653,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1808,31 +1685,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
         <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1840,31 +1717,31 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I28" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J28" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1872,31 +1749,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
         <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="G29" t="s">
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J29" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1904,31 +1781,25 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I30" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J30" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1936,31 +1807,25 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J31" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1968,31 +1833,25 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I32" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J32" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2000,31 +1859,25 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
         <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2032,31 +1885,25 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I34" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J34" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2064,31 +1911,25 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
         <v>43</v>
       </c>
       <c r="H35" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I35" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J35" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2096,31 +1937,25 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G36" t="s">
         <v>44</v>
       </c>
       <c r="H36" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I36" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="J36" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2128,31 +1963,25 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I37" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="J37" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2160,31 +1989,25 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I38" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="J38" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2192,31 +2015,25 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G39" t="s">
         <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="I39" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="J39" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2224,31 +2041,25 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G40" t="s">
         <v>48</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="I40" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="J40" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2256,31 +2067,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G41" t="s">
         <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="I41" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="J41" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2288,25 +2099,25 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G42" t="s">
         <v>50</v>
       </c>
       <c r="H42" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2314,25 +2125,25 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G43" t="s">
         <v>51</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2340,25 +2151,25 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G44" t="s">
         <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2366,25 +2177,25 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
         <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
         <v>53</v>
       </c>
       <c r="H45" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2392,25 +2203,25 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G46" t="s">
         <v>54</v>
       </c>
       <c r="H46" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2418,25 +2229,25 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
         <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G47" t="s">
         <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2444,25 +2255,25 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
         <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G48" t="s">
         <v>56</v>
       </c>
       <c r="H48" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2470,25 +2281,25 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
         <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G49" t="s">
         <v>57</v>
       </c>
       <c r="H49" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2496,25 +2307,25 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
         <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G50" t="s">
         <v>58</v>
       </c>
       <c r="H50" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2522,25 +2333,25 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
         <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G51" t="s">
         <v>59</v>
       </c>
       <c r="H51" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2548,25 +2359,25 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
         <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G52" t="s">
         <v>60</v>
       </c>
       <c r="H52" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2574,25 +2385,25 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
         <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G53" t="s">
         <v>61</v>
       </c>
       <c r="H53" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2600,25 +2411,25 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G54" t="s">
         <v>62</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2626,25 +2437,25 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
         <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F55" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G55" t="s">
         <v>63</v>
       </c>
       <c r="H55" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2652,25 +2463,25 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
         <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G56" t="s">
         <v>64</v>
       </c>
       <c r="H56" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2678,25 +2489,25 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G57" t="s">
         <v>65</v>
       </c>
       <c r="H57" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2704,25 +2515,25 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
         <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F58" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G58" t="s">
         <v>66</v>
       </c>
       <c r="H58" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2730,25 +2541,25 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
         <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G59" t="s">
         <v>67</v>
       </c>
       <c r="H59" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2756,25 +2567,13 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" t="s">
-        <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="G60" t="s">
         <v>79</v>
       </c>
       <c r="H60" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2782,25 +2581,13 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="G61" t="s">
         <v>80</v>
       </c>
       <c r="H61" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2808,25 +2595,13 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="G62" t="s">
         <v>81</v>
       </c>
       <c r="H62" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2834,25 +2609,13 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="G63" t="s">
         <v>82</v>
       </c>
       <c r="H63" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2860,25 +2623,13 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="G64" t="s">
         <v>83</v>
       </c>
       <c r="H64" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2886,25 +2637,13 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" t="s">
-        <v>179</v>
-      </c>
-      <c r="E65" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="G65" t="s">
         <v>84</v>
       </c>
       <c r="H65" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2912,25 +2651,19 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
-        <v>179</v>
-      </c>
-      <c r="E66" t="s">
-        <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="G66" t="s">
         <v>85</v>
       </c>
       <c r="H66" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2938,25 +2671,19 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="G67" t="s">
         <v>86</v>
       </c>
       <c r="H67" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2964,25 +2691,19 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
-      </c>
-      <c r="E68" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="G68" t="s">
         <v>87</v>
       </c>
       <c r="H68" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2990,25 +2711,19 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" t="s">
-        <v>130</v>
-      </c>
-      <c r="F69" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="G69" t="s">
         <v>88</v>
       </c>
       <c r="H69" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3016,25 +2731,19 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
-      </c>
-      <c r="E70" t="s">
-        <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="G70" t="s">
         <v>89</v>
       </c>
       <c r="H70" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3042,25 +2751,19 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
-      </c>
-      <c r="E71" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="G71" t="s">
         <v>90</v>
       </c>
       <c r="H71" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3068,19 +2771,19 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G72" t="s">
         <v>91</v>
       </c>
       <c r="H72" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3088,19 +2791,19 @@
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G73" t="s">
         <v>92</v>
       </c>
       <c r="H73" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3108,19 +2811,19 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G74" t="s">
         <v>93</v>
       </c>
       <c r="H74" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3128,19 +2831,19 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D75" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G75" t="s">
         <v>94</v>
       </c>
       <c r="H75" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3148,19 +2851,19 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G76" t="s">
         <v>95</v>
       </c>
       <c r="H76" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3168,19 +2871,19 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s">
         <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G77" t="s">
         <v>96</v>
       </c>
       <c r="H77" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3188,19 +2891,19 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G78" t="s">
         <v>97</v>
       </c>
       <c r="H78" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3208,19 +2911,19 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
       </c>
       <c r="D79" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G79" t="s">
         <v>98</v>
       </c>
       <c r="H79" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3228,19 +2931,19 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
       </c>
       <c r="D80" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G80" t="s">
         <v>99</v>
       </c>
       <c r="H80" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3248,19 +2951,19 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G81" t="s">
         <v>100</v>
       </c>
       <c r="H81" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3268,19 +2971,19 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G82" t="s">
         <v>101</v>
       </c>
       <c r="H82" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3288,19 +2991,19 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G83" t="s">
         <v>102</v>
       </c>
       <c r="H83" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3308,19 +3011,19 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G84" t="s">
         <v>103</v>
       </c>
       <c r="H84" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3328,19 +3031,19 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G85" t="s">
         <v>104</v>
       </c>
       <c r="H85" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3348,19 +3051,19 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G86" t="s">
         <v>105</v>
       </c>
       <c r="H86" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3368,19 +3071,19 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G87" t="s">
         <v>106</v>
       </c>
       <c r="H87" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3388,19 +3091,19 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G88" t="s">
         <v>107</v>
       </c>
       <c r="H88" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3408,19 +3111,19 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G89" t="s">
         <v>108</v>
       </c>
       <c r="H89" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3428,19 +3131,19 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G90" t="s">
         <v>109</v>
       </c>
       <c r="H90" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3448,19 +3151,19 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G91" t="s">
         <v>110</v>
       </c>
       <c r="H91" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3468,19 +3171,19 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C92" t="s">
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="G92" t="s">
         <v>111</v>
       </c>
       <c r="H92" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3488,19 +3191,13 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>179</v>
-      </c>
-      <c r="G93" t="s">
-        <v>112</v>
-      </c>
-      <c r="H93" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3508,19 +3205,13 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D94" t="s">
-        <v>179</v>
-      </c>
-      <c r="G94" t="s">
-        <v>113</v>
-      </c>
-      <c r="H94" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3528,19 +3219,13 @@
         <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D95" t="s">
-        <v>179</v>
-      </c>
-      <c r="G95" t="s">
-        <v>114</v>
-      </c>
-      <c r="H95" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3548,19 +3233,13 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>179</v>
-      </c>
-      <c r="G96" t="s">
-        <v>115</v>
-      </c>
-      <c r="H96" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3568,19 +3247,13 @@
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
-      </c>
-      <c r="G97" t="s">
-        <v>116</v>
-      </c>
-      <c r="H97" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3588,19 +3261,13 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>179</v>
-      </c>
-      <c r="G98" t="s">
-        <v>117</v>
-      </c>
-      <c r="H98" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3608,19 +3275,13 @@
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>179</v>
-      </c>
-      <c r="G99" t="s">
-        <v>118</v>
-      </c>
-      <c r="H99" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3628,19 +3289,13 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D100" t="s">
-        <v>179</v>
-      </c>
-      <c r="G100" t="s">
-        <v>119</v>
-      </c>
-      <c r="H100" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3648,19 +3303,13 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D101" t="s">
-        <v>179</v>
-      </c>
-      <c r="G101" t="s">
-        <v>120</v>
-      </c>
-      <c r="H101" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3668,19 +3317,13 @@
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
-      </c>
-      <c r="G102" t="s">
-        <v>121</v>
-      </c>
-      <c r="H102" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3688,313 +3331,197 @@
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D103" t="s">
-        <v>179</v>
-      </c>
-      <c r="G103" t="s">
-        <v>122</v>
-      </c>
-      <c r="H103" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>112</v>
-      </c>
-      <c r="B104" t="s">
-        <v>136</v>
-      </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D104" t="s">
-        <v>179</v>
+        <v>140</v>
+      </c>
+      <c r="E104" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" t="s">
+        <v>142</v>
+      </c>
+      <c r="G104" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>113</v>
-      </c>
-      <c r="B105" t="s">
-        <v>153</v>
-      </c>
       <c r="C105" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" t="s">
+        <v>140</v>
+      </c>
+      <c r="E105" t="s">
         <v>109</v>
       </c>
-      <c r="D105" t="s">
-        <v>179</v>
+      <c r="F105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G105" t="s">
+        <v>69</v>
+      </c>
+      <c r="H105" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>114</v>
-      </c>
-      <c r="B106" t="s">
-        <v>138</v>
-      </c>
       <c r="C106" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" t="s">
+        <v>140</v>
+      </c>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="C107" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" t="s">
+        <v>140</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="C108" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108" t="s">
+        <v>140</v>
+      </c>
+      <c r="G108" t="s">
+        <v>72</v>
+      </c>
+      <c r="H108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="C109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" t="s">
+        <v>140</v>
+      </c>
+      <c r="G109" t="s">
+        <v>73</v>
+      </c>
+      <c r="H109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>140</v>
+      </c>
+      <c r="G110" t="s">
+        <v>74</v>
+      </c>
+      <c r="H110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="C111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" t="s">
+        <v>140</v>
+      </c>
+      <c r="G111" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="C112" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" t="s">
+        <v>140</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8">
+      <c r="C113" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" t="s">
+        <v>140</v>
+      </c>
+      <c r="G113" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8">
+      <c r="C114" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8">
+      <c r="C115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8">
+      <c r="C116" t="s">
         <v>110</v>
       </c>
-      <c r="D106" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>115</v>
-      </c>
-      <c r="B107" t="s">
-        <v>139</v>
-      </c>
-      <c r="C107" t="s">
-        <v>111</v>
-      </c>
-      <c r="D107" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>116</v>
-      </c>
-      <c r="B108" t="s">
-        <v>141</v>
-      </c>
-      <c r="C108" t="s">
-        <v>112</v>
-      </c>
-      <c r="D108" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>117</v>
-      </c>
-      <c r="B109" t="s">
-        <v>142</v>
-      </c>
-      <c r="C109" t="s">
-        <v>113</v>
-      </c>
-      <c r="D109" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>118</v>
-      </c>
-      <c r="B110" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" t="s">
-        <v>114</v>
-      </c>
-      <c r="D110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>119</v>
-      </c>
-      <c r="B111" t="s">
-        <v>147</v>
-      </c>
-      <c r="C111" t="s">
-        <v>115</v>
-      </c>
-      <c r="D111" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>120</v>
-      </c>
-      <c r="B112" t="s">
-        <v>149</v>
-      </c>
-      <c r="C112" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" t="s">
-        <v>150</v>
-      </c>
-      <c r="C113" t="s">
-        <v>117</v>
-      </c>
-      <c r="D113" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>122</v>
-      </c>
-      <c r="B114" t="s">
-        <v>151</v>
-      </c>
-      <c r="C114" t="s">
-        <v>118</v>
-      </c>
-      <c r="D114" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>123</v>
-      </c>
-      <c r="B115" t="s">
-        <v>155</v>
-      </c>
-      <c r="C115" t="s">
-        <v>119</v>
-      </c>
-      <c r="D115" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>124</v>
-      </c>
-      <c r="B116" t="s">
-        <v>156</v>
-      </c>
-      <c r="C116" t="s">
-        <v>120</v>
-      </c>
       <c r="D116" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" t="s">
-        <v>166</v>
-      </c>
-      <c r="C117" t="s">
-        <v>121</v>
-      </c>
-      <c r="D117" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>126</v>
-      </c>
-      <c r="B118" t="s">
-        <v>158</v>
-      </c>
-      <c r="C118" t="s">
-        <v>123</v>
-      </c>
-      <c r="D118" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>127</v>
-      </c>
-      <c r="B119" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" t="s">
-        <v>124</v>
-      </c>
-      <c r="D119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>128</v>
-      </c>
-      <c r="B120" t="s">
-        <v>160</v>
-      </c>
-      <c r="C120" t="s">
-        <v>125</v>
-      </c>
-      <c r="D120" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" t="s">
-        <v>161</v>
-      </c>
-      <c r="C121" t="s">
-        <v>126</v>
-      </c>
-      <c r="D121" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>130</v>
-      </c>
-      <c r="B122" t="s">
-        <v>162</v>
-      </c>
-      <c r="C122" t="s">
-        <v>127</v>
-      </c>
-      <c r="D122" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123" t="s">
-        <v>164</v>
-      </c>
-      <c r="C123" t="s">
-        <v>128</v>
-      </c>
-      <c r="D123" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>132</v>
-      </c>
-      <c r="B124" t="s">
-        <v>165</v>
-      </c>
-      <c r="C124" t="s">
-        <v>129</v>
-      </c>
-      <c r="D124" t="s">
-        <v>179</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8">
+      <c r="G117" t="s">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsMaps.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsMaps.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GeneratorsMaps" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GeneratorsMaps" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsMaps.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsMaps.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GeneratorsMaps" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GeneratorsMaps" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,30 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>id2g_E/id</t>
+          <t>id2g/id</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>id2g_E/g_E</t>
+          <t>id2g/g</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>id2g_H/id</t>
+          <t>tech2modelTech/tech</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>id2g_H/g_H</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tech2modelTech/tech</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>tech2modelTech/modelTech</t>
         </is>
@@ -518,20 +508,10 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Biogas</t>
+          <t>BH_Biogas</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>BH_Biogas</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -570,20 +550,10 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Biogas</t>
+          <t>BP_Biogas</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>BP_Biogas</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -622,20 +592,10 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Biogas</t>
+          <t>IndustryH_Biogas</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>IndustryH_Biogas</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -674,20 +634,10 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Biomass</t>
+          <t>BH_Biomass</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>BH_Biomass</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -726,20 +676,10 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Biomass</t>
+          <t>BP_Biomass</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>BP_Biomass</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -778,20 +718,10 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Coal</t>
+          <t>BP_Coal</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>BP_Coal</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -830,20 +760,10 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Natgas</t>
+          <t>BH_Natgas</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>BH_Natgas</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -882,20 +802,10 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Natgas</t>
+          <t>BP_Natgas</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>BP_Natgas</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -934,20 +844,10 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Natgas</t>
+          <t>IndustryH_Natgas</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>IndustryH_Natgas</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -986,20 +886,10 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Oil</t>
+          <t>BH_Oil</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>BH_Oil</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1038,20 +928,10 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Oil</t>
+          <t>BP_Oil</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>BP_Oil</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -1090,20 +970,10 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Oil</t>
+          <t>IndustryH_Oil</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>IndustryH_Oil</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1142,20 +1012,10 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Waste</t>
+          <t>BH_Waste</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>BH_Waste</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1194,20 +1054,10 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Waste</t>
+          <t>BP_Waste</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>BP_Waste</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -1246,20 +1096,10 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id_DK_Central_EP</t>
+          <t>EP</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>EP</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
@@ -1298,20 +1138,10 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPstandard</t>
+          <t>HPstandard</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>HPstandard</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
@@ -1350,20 +1180,10 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPsurplusheat</t>
+          <t>HPsurplusheat</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
@@ -1402,20 +1222,10 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id_DK_Central_IH</t>
+          <t>IH</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>IH</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
@@ -1454,20 +1264,10 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH</t>
+          <t>IndustryH</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>IndustryH</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1506,20 +1306,10 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id_DK_Central_SH</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SH</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1558,20 +1348,10 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
+          <t>IndustryH_Biomass</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>IndustryH_Biomass</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1610,20 +1390,10 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1662,20 +1432,10 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
+          <t>CD_Biogas</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>CD_Biogas</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1714,20 +1474,10 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
+          <t>IndustryE_Biogas</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1766,20 +1516,10 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>IndustryE_Biomass</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>IndustryE_Biomass</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1818,20 +1558,10 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
+          <t>CD_Coal</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>CD_Coal</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1870,20 +1600,10 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
+          <t>CD_Natgas</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>CD_Natgas</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1922,20 +1642,10 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>IndustryE_Natgas</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1974,20 +1684,10 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
+          <t>CD_Oil</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>CD_Oil</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -2026,20 +1726,10 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Oil</t>
+          <t>IndustryE_Oil</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -2078,20 +1768,10 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Oil</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>PV</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -2118,24 +1798,22 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BH_Biogas</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
+          <t>ROR</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>ROR</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -2162,24 +1840,22 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BP_Biogas</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Waste</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>WL</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -2206,24 +1882,22 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>id_DK_Central_IndustryH_Biogas</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Waste</t>
+          <t>WS</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>WS</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -2250,20 +1924,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_EP</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BH_Biomass</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2286,20 +1958,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_GT</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BP_Biomass</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2322,20 +1992,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BP_Coal</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2358,20 +2026,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BH_Natgas</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2394,20 +2060,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IH</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BP_Natgas</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2430,20 +2094,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>id_DK_Central_IndustryH_Natgas</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2466,20 +2128,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_SH</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BH_Oil</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2502,12 +2162,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BP_Oil</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2530,12 +2196,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>id_DK_Central_IndustryH_Oil</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2558,12 +2230,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BH_Waste</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2586,12 +2264,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BP_Waste</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2614,12 +2298,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>id_DK_Central_EP</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2642,12 +2332,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>id_DK_Central_HPstandard</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2670,12 +2366,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>id_DK_Central_HPsurplusheat</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2698,12 +2400,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>id_DK_Central_IH</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2726,12 +2434,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>id_DK_Central_IndustryH</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2754,12 +2468,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>id_DK_Central_SH</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2782,12 +2502,18 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_BH_Biogas</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2810,12 +2536,360 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_BP_Biogas</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_IndustryH_Biogas</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_BH_Biomass</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_BP_Biomass</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_IndustryH_Biomass</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_BH_Natgas</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_BP_Natgas</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_IndustryH_Natgas</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_BH_Oil</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_BP_Oil</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_IndustryH_Oil</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_BH_Waste</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_BP_Waste</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_EP</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_GT</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_HPstandard</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_HPsurplusheat</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_IH</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_IndustryH</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_SH</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsMaps.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsMaps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>id2g/id</t>
+          <t>id2g_E/id</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>id2g/g</t>
+          <t>id2g_E/g_E</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>id2g_H/id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>id2g_H/g_H</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>tech2modelTech/tech</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>tech2modelTech/modelTech</t>
         </is>
@@ -508,10 +518,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>id_DK_Central_BH_Biogas</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>BH_Biogas</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -550,10 +570,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>id_DK_Central_BP_Biogas</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>BP_Biogas</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -592,10 +622,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>id_DK_Central_IndustryH_Biogas</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>IndustryH_Biogas</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -634,10 +674,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>id_DK_Central_BH_Biomass</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>BH_Biomass</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -676,10 +726,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>id_DK_Central_BP_Biomass</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>BP_Biomass</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -718,10 +778,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>id_DK_Central_BP_Coal</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>BP_Coal</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -760,10 +830,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>id_DK_Central_BH_Natgas</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>BH_Natgas</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -802,10 +882,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>id_DK_Central_BP_Natgas</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>BP_Natgas</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -844,10 +934,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>id_DK_Central_IndustryH_Natgas</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>IndustryH_Natgas</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -886,10 +986,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>id_DK_Central_BH_Oil</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>BH_Oil</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -928,10 +1038,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>id_DK_Central_BP_Oil</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>BP_Oil</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -970,10 +1090,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>id_DK_Central_IndustryH_Oil</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>IndustryH_Oil</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1012,10 +1142,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>id_DK_Central_BH_Waste</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>BH_Waste</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1054,10 +1194,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>id_DK_Central_BP_Waste</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>BP_Waste</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
@@ -1096,10 +1246,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>id_DK_Central_EP</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
@@ -1138,10 +1298,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>id_DK_Central_HPstandard</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>HPstandard</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
@@ -1180,10 +1350,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>id_DK_Central_HPsurplusheat</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>HPsurplusheat</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
@@ -1222,10 +1402,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>id_DK_Central_IH</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>IH</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
@@ -1264,10 +1454,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>id_DK_Central_IndustryH</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>IndustryH</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1306,10 +1506,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>id_DK_Central_SH</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>DK_Central</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>SH</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1348,10 +1558,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_BH_Biogas</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>IndustryH_Biomass</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1390,10 +1610,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_BP_Biogas</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>GT</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>standard_H</t>
         </is>
@@ -1432,10 +1662,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_IndustryH_Biogas</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>CD_Biogas</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1474,10 +1714,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_BH_Biomass</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>IndustryE_Biogas</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1516,10 +1766,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_BP_Biomass</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>IndustryE_Biomass</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1558,10 +1818,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_IndustryH_Biomass</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>CD_Coal</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1600,10 +1870,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_BH_Natgas</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>CD_Natgas</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1642,10 +1922,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_BP_Natgas</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>IndustryE_Natgas</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1684,10 +1974,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_IndustryH_Natgas</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>CD_Oil</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1726,10 +2026,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_BH_Oil</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>IndustryE_Oil</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1768,10 +2078,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_BP_Oil</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>PV</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1798,22 +2118,24 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>id_DK_Central_BH_Biogas</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_IndustryH_Oil</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>ROR</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1840,22 +2162,24 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>id_DK_Central_BP_Biogas</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_BH_Waste</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>WL</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1882,22 +2206,24 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>id_DK_Central_IndustryH_Biogas</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>id_DK_Decentral_BP_Waste</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>WS</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>standard_E</t>
         </is>
@@ -1924,18 +2250,20 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>id_DK_Central_BH_Biomass</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_EP</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1958,18 +2286,20 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>id_DK_Central_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_GT</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1992,18 +2322,20 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>id_DK_Central_BP_Coal</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_HPstandard</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2026,18 +2358,20 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>id_DK_Central_BH_Natgas</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_HPsurplusheat</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2060,18 +2394,20 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>id_DK_Central_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_IH</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2094,18 +2430,20 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>id_DK_Central_IndustryH_Natgas</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_IndustryH</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2128,18 +2466,20 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>id_DK_Central_BH_Oil</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>id_DK_Decentral_SH</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>DK_Decentral</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2162,18 +2502,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>id_DK_Central_BP_Oil</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2196,18 +2530,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>id_DK_Central_IndustryH_Oil</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2230,18 +2558,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>id_DK_Central_BH_Waste</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2264,18 +2586,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>id_DK_Central_BP_Waste</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2298,18 +2614,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>id_DK_Central_EP</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2332,18 +2642,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>id_DK_Central_HPstandard</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2366,18 +2670,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>id_DK_Central_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2400,18 +2698,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>id_DK_Central_IH</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2434,18 +2726,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>id_DK_Central_IndustryH</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2468,18 +2754,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>id_DK_Central_SH</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>DK_Central</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2502,18 +2782,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2536,360 +2810,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Oil</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Waste</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Waste</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_EP</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_GT</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IH</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_SH</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsMaps.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsMaps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,12 +550,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_SH</t>
+          <t>id_DK_nan_PV</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SH_DK_Decentral</t>
+          <t>PV_DK</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -602,12 +602,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>id_DK_nan_PV</t>
+          <t>id_DK_nan_ROR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PV_DK</t>
+          <t>ROR_DK</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -654,12 +654,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>id_DK_nan_ROR</t>
+          <t>id_DK_nan_WL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ROR_DK</t>
+          <t>WL_DK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>id_DK_nan_WL</t>
+          <t>id_DK_nan_WS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WL_DK</t>
+          <t>WS_DK</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,22 +748,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Coal</t>
+          <t>id_DK_Central_IndustryH_Biomass</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BP_Coal</t>
+          <t>IndustryH_Biomass</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>id_DK_nan_WS</t>
+          <t>id_DK_Central_BH_Biogas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WS_DK</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Coal</t>
+          <t>id_DK_Central_IndustryH_Biomass</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -788,29 +788,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BP_Coal</t>
+          <t>IndustryH_Biomass</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Natgas</t>
+          <t>id_DK_Central_BP_Coal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BH_Natgas</t>
+          <t>BP_Coal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Biogas</t>
+          <t>id_DK_Central_BP_Biogas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Natgas</t>
+          <t>id_DK_Central_BP_Coal</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -840,29 +840,29 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BH_Natgas</t>
+          <t>BP_Coal</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Natgas</t>
+          <t>id_DK_Central_BH_Natgas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BP_Natgas</t>
+          <t>BH_Natgas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Biogas</t>
+          <t>id_DK_Central_IndustryH_Biogas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Natgas</t>
+          <t>id_DK_Central_BH_Natgas</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -892,29 +892,29 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BP_Natgas</t>
+          <t>BH_Natgas</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Natgas</t>
+          <t>id_DK_Central_BP_Natgas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IndustryH_Natgas</t>
+          <t>BP_Natgas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Biogas</t>
+          <t>id_DK_Central_BH_Biomass</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Natgas</t>
+          <t>id_DK_Central_BP_Natgas</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -944,29 +944,29 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>IndustryH_Natgas</t>
+          <t>BP_Natgas</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Oil</t>
+          <t>id_DK_Central_IndustryH_Natgas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BH_Oil</t>
+          <t>IndustryH_Natgas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Biomass</t>
+          <t>id_DK_Central_BP_Biomass</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Oil</t>
+          <t>id_DK_Central_IndustryH_Natgas</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BH_Oil</t>
+          <t>IndustryH_Natgas</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1008,17 +1008,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Oil</t>
+          <t>id_DK_Central_BH_Oil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BP_Oil</t>
+          <t>BH_Oil</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Biomass</t>
+          <t>id_DK_Central_IndustryH_Biomass</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Oil</t>
+          <t>id_DK_Central_BH_Oil</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1048,24 +1048,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BP_Oil</t>
+          <t>BH_Oil</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Oil</t>
+          <t>id_DK_Central_BP_Oil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IndustryH_Oil</t>
+          <t>BP_Oil</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Oil</t>
+          <t>id_DK_Central_BP_Oil</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1100,24 +1100,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>IndustryH_Oil</t>
+          <t>BP_Oil</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Waste</t>
+          <t>id_DK_Central_IndustryH_Oil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BH_Waste</t>
+          <t>IndustryH_Oil</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Waste</t>
+          <t>id_DK_Central_IndustryH_Oil</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BH_Waste</t>
+          <t>IndustryH_Oil</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1164,12 +1164,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Waste</t>
+          <t>id_DK_Central_BH_Waste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BP_Waste</t>
+          <t>BH_Waste</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Oil</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Waste</t>
+          <t>id_DK_Central_BH_Waste</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1204,24 +1204,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>BP_Waste</t>
+          <t>BH_Waste</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>id_DK_Central_EP</t>
+          <t>id_DK_Central_BP_Waste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EP</t>
+          <t>BP_Waste</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Waste</t>
+          <t>id_DK_nan_CD_Natgas</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id_DK_Central_EP</t>
+          <t>id_DK_Central_BP_Waste</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1256,24 +1256,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>EP</t>
+          <t>BP_Waste</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPstandard</t>
+          <t>id_DK_Central_EP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HPstandard</t>
+          <t>EP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_EP</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPstandard</t>
+          <t>id_DK_Central_EP</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>HPstandard</t>
+          <t>EP</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1320,12 +1320,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPsurplusheat</t>
+          <t>id_DK_Central_GT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HPsurplusheat</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_HPstandard</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPsurplusheat</t>
+          <t>id_DK_Central_GT</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1360,24 +1360,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>HPsurplusheat</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>standard_H</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id_DK_Central_IH</t>
+          <t>id_DK_Central_HPstandard</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IH</t>
+          <t>HPstandard</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id_DK_Central_IH</t>
+          <t>id_DK_Central_HPstandard</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>IH</t>
+          <t>HPstandard</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1424,12 +1424,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH</t>
+          <t>id_DK_Central_HPsurplusheat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IndustryH</t>
+          <t>HPsurplusheat</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IH</t>
+          <t>id_DK_nan_PV</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH</t>
+          <t>id_DK_Central_HPsurplusheat</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1464,24 +1464,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>IndustryH</t>
+          <t>HPsurplusheat</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>HP</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>id_DK_Central_SH</t>
+          <t>id_DK_Central_IH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SH</t>
+          <t>IH</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>id_DK_nan_CD_Biogas</t>
+          <t>id_DK_nan_ROR</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id_DK_Central_SH</t>
+          <t>id_DK_Central_IH</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1516,24 +1516,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>SH</t>
+          <t>IH</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>standard_H</t>
+          <t>HP</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
+          <t>id_DK_Central_IndustryH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BH_Biogas</t>
+          <t>IndustryH</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>id_DK_nan_IndustryE_Biogas</t>
+          <t>id_DK_nan_WL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1558,17 +1558,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
+          <t>id_DK_Central_IndustryH</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>DK_Decentral</t>
+          <t>DK_Central</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>IndustryH_Biomass</t>
+          <t>IndustryH</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1580,17 +1580,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_Central_SH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BP_Biogas</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPstandard</t>
+          <t>id_DK_Central_GT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>id_DK_nan_IndustryE_Biomass</t>
+          <t>id_DK_nan_WS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1610,17 +1610,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_Central_SH</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>DK_Decentral</t>
+          <t>DK_Central</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1632,17 +1632,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IndustryH_Biogas</t>
+          <t>CD_Biogas</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPsurplusheat</t>
+          <t>id_DK_Central_HPstandard</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1650,26 +1650,10 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
           <t>CD_Biogas</t>
@@ -1684,17 +1668,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BH_Biomass</t>
+          <t>IndustryE_Biogas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>id_DK_Central_IH</t>
+          <t>id_DK_Central_HPsurplusheat</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1702,26 +1686,10 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Natgas</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
           <t>IndustryE_Biogas</t>
@@ -1736,17 +1704,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BP_Biomass</t>
+          <t>IndustryE_Biomass</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH</t>
+          <t>id_DK_Central_IH</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1754,26 +1722,10 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
           <t>IndustryE_Biomass</t>
@@ -1788,17 +1740,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IndustryH_Biomass</t>
+          <t>CD_Coal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
+          <t>id_DK_Central_IndustryH</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1806,26 +1758,10 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>CD_Coal</t>
@@ -1840,17 +1776,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
+          <t>id_DK_nan_CD_Natgas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BH_Natgas</t>
+          <t>CD_Natgas</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1858,26 +1794,10 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
           <t>CD_Natgas</t>
@@ -1892,17 +1812,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BP_Natgas</t>
+          <t>IndustryE_Natgas</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1910,26 +1830,10 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>id_DK_nan_PV</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
           <t>IndustryE_Natgas</t>
@@ -1944,17 +1848,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IndustryH_Natgas</t>
+          <t>CD_Oil</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1962,26 +1866,10 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>id_DK_nan_ROR</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>CD_Oil</t>
@@ -1996,17 +1884,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Oil</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BH_Oil</t>
+          <t>IndustryE_Oil</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2014,26 +1902,10 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WL</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Oil</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
           <t>IndustryE_Oil</t>
@@ -2048,17 +1920,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Oil</t>
+          <t>id_DK_nan_PV</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BP_Oil</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
+          <t>id_DK_nan_CD_Natgas</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2066,26 +1938,10 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WS</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>PV</t>
@@ -2100,17 +1956,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
+          <t>id_DK_nan_ROR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IndustryH_Oil</t>
+          <t>ROR</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2120,16 +1976,8 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
           <t>ROR</t>
@@ -2144,17 +1992,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Waste</t>
+          <t>id_DK_nan_WL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BH_Waste</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2164,16 +2012,8 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Waste</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>WL</t>
@@ -2188,17 +2028,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Waste</t>
+          <t>id_DK_nan_WS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BP_Waste</t>
+          <t>WS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2208,16 +2048,8 @@
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Waste</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
           <t>WS</t>
@@ -2228,594 +2060,6 @@
           <t>standard_E</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_EP</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>EP</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Oil</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_EP</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_GT</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_GT</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>HPstandard</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Waste</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IH</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>IH</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Waste</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IH</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>IndustryH</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_EP</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_SH</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SH</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_GT</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_SH</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>DK_Decentral</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Biogas</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>CD_Biogas</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biomass</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>IndustryE_Biomass</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IH</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CD_Coal</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Natgas</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CD_Natgas</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Biogas</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>CD_Oil</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biomass</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>id_DK_nan_PV</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>PV</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Natgas</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>id_DK_nan_ROR</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ROR</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WL</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>WL</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WS</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>WS</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
